--- a/gn/0.01sun.xlsx
+++ b/gn/0.01sun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\UROP\cir_simu\paperdata2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\UROP\cir_simu\gn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8440C2DB-8A75-4F45-A019-FAAC14E6B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD12BA-50DB-4AE0-9FA1-DE3365716B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="3450" windowWidth="14970" windowHeight="13725" xr2:uid="{9FBDF974-9964-41D1-B752-DD7A37F9A7A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9FBDF974-9964-41D1-B752-DD7A37F9A7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>z_real</t>
-  </si>
-  <si>
-    <t>z_imag</t>
-  </si>
-  <si>
     <t>eff_cap+D1:D37</t>
-  </si>
-  <si>
-    <t>frequency</t>
   </si>
   <si>
     <t>J_ph</t>
@@ -56,6 +47,15 @@
   </si>
   <si>
     <t>applied voltage</t>
+  </si>
+  <si>
+    <t>angular frequency</t>
+  </si>
+  <si>
+    <t>Z_real</t>
+  </si>
+  <si>
+    <t>Z_imag</t>
   </si>
 </sst>
 </file>
@@ -412,32 +412,32 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
